--- a/veri_seti.xlsx
+++ b/veri_seti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emreh\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEAEF22-5B9F-47AE-A283-F4620BAF6592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F3C8B-8035-4F0A-8FBA-8C5EF6D7BF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{56D2395E-756C-4F03-9697-6BB790431415}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{56D2395E-756C-4F03-9697-6BB790431415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Ball Diameter </t>
-  </si>
-  <si>
     <t xml:space="preserve">Composite Matrix Thickness </t>
   </si>
   <si>
     <t xml:space="preserve">Ballistic Limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball Diameter       </t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q1:Q1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,13 +432,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
